--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B25CB61-AC1E-4084-B6F4-14CAD30767E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2DE338-F8CC-49AF-B352-9C2394740BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>Keyword</t>
   </si>
@@ -271,16 +271,25 @@
     <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0015 - PENSION TRUST FUND </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001 - ENTERPRISE DETAILS </t>
-  </si>
-  <si>
     <t xml:space="preserve"> N - No </t>
   </si>
   <si>
-    <t>0025</t>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>txt_di_fund_fp</t>
+  </si>
+  <si>
+    <t>FundDi</t>
+  </si>
+  <si>
+    <t>getData=FundDi</t>
   </si>
 </sst>
 </file>
@@ -675,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +832,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -840,10 +849,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -854,10 +863,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -868,10 +877,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -882,10 +891,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -896,10 +905,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -907,13 +916,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -921,13 +930,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -935,13 +944,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -952,10 +961,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -963,13 +972,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -977,33 +986,61 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BE8AF2-4EA9-40CF-828D-CBF62AEF6757}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,10 +1080,11 @@
     <col min="20" max="20" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.36328125" customWidth="1"/>
+    <col min="24" max="24" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1114,10 +1152,13 @@
         <v>45</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1136,23 +1177,23 @@
       <c r="G2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
         <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" t="s">
-        <v>83</v>
       </c>
       <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" t="s">
-        <v>62</v>
+      <c r="O2" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="P2" t="s">
         <v>68</v>
@@ -1170,7 +1211,10 @@
         <v>78</v>
       </c>
       <c r="V2" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="W2">
+        <v>8970</v>
       </c>
     </row>
   </sheetData>
